--- a/scraplingAdaptationHana/giant/giant_price_compare/giant_foods_pc.xlsx
+++ b/scraplingAdaptationHana/giant/giant_price_compare/giant_foods_pc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,459 +441,835 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Item Description</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>scraped_upc</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Pack</t>
+          <t>scraped_price</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PBH</t>
+          <t>scraped_name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PBH Description</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>scraped_upc</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>scraped_price</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>scraped_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>scraped_name</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>scraped_timestamp</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>scraping_status</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>9800895007</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NUTELLA SPRD HZLNT</t>
-        </is>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>9800895007</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.49</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   13OZ</t>
+          <t>980089500</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>5.29</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  237</t>
+          <t>Nutella Hazelnut Spread with Cocoa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PEANUT BUTTER/NUT</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10900000185</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1090000015</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Reynolds Wrap Aluminum Foil 12 Inch Wide</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10900000215</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1090000015</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Reynolds Wrap Aluminum Foil 12 Inch Wide</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10900003308</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1090000330</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Reynolds Kitchens Cut-Rite Wax Paper 12 Inch Wide</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10900743310</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1090074331</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Reynolds Kitchens Parchment Paper 15 Inch Wide</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>11115871324</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13000006057</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1300000605</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Heinz Tomato Ketchup</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13000007993</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1300000799</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Heinz No Sugar Added Tomato Ketchup</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13000008129</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1200000129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pepsi Cola Soda</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13000008525</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13000008549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1300000899</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Heinz Organic Tomato Ketchup</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13000011105</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1300001110</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Heinz No Sugar Added Tomato Ketchup</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13300204306</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1330020430</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pillsbury Best Bleached All-Purpose Flour</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14800000344</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1480000034</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Mott's 100% Apple Juice</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14800002294</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1480000229</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Mott's 100% Apple Juice Original - 6 pk</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>14800513240</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1480051324</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Clamato El Original Tomato Cocktail from Concentrate</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16000106109</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1600010610</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Gold Medal Bleached All Purpose Flour</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>16000107106</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1600010710</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Gold Medal Bleached All Purpose Flour</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>16000122543</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1600012254</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cinnamon Toast Crunch Cereal</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>16000123991</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1600012399</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Lucky Charms Gluten Free Cereal with Marshmallows</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16000124790</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1600012479</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cheerios Gluten Free Honey Nut Cereal</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16000125063</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1600012506</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cheerios Gluten Free Honey Nut Cereal Large Size</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>16000275263</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1600027526</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cheerios Gluten Free Cereal</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16000487727</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1600048772</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>5.49</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>980089500</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cheerios Gluten Free Cereal Large Size</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>16000487949</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1600048794</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Rice Chex Gluten Free Cereal</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>18000287949</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1800028794</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>5.29</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>13 OZ JAR</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Nutella Hazelnut Spread with Cocoa</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2025-06-02T16:34:48.102753</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10900000185</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RYNLD ALUM FOIL EVD 1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  200SF</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  540</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ALUMINUM FOIL</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1090000015</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>75 SQ FT</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Reynolds Wrap Aluminum Foil 12 Inch Wide</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2025-06-02T16:34:54.025627</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10900000215</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RYNLD ALUM FOIL HD 12</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   50SF</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>35</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  540</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ALUMINUM FOIL</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1090000015</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>75 SQ FT</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Reynolds Wrap Aluminum Foil 12 Inch Wide</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2025-06-02T16:35:01.501934</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>10900003308</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RYNLD CR WAX PAPER</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   75SF</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>24</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  549</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>PAPER:PARCHMENT/WA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1090000330</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>75 SQ FT</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Reynolds Kitchens Cut-Rite Wax Paper 12 Inch Wide</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2025-06-03T11:52:26.619744</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>10900743310</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RYNLD PRCHMNT PAPER</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   45SF</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>24</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  549</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>PAPER:PARCHMENT/WA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1090074331</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>45 SQ FT</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Reynolds Kitchens Parchment Paper 15 Inch Wide</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2025-06-03T11:52:34.524920</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>11115871324</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>IMPERIAL SPRD QTRS</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   16OZ</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>24</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MARGARINE (REG)</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2025-06-03T11:52:39.829267</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pillsbury Pie Crusts - 2 ct</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>18000817733</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1800081772</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pillsbury Sugar Cookie Dough - 24 ct</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>18000817788</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1800081778</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pillsbury Chocolate Chip Cookie Dough - 24 ct</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20113001534</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>13000006057</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HNZ KETCHUP EASY SQZE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   32OZ</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>12</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  212</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>KETCHUP</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1300000605</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>32 OZ BTL</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Heinz Tomato Ketchup</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2025-06-03T11:52:47.465462</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20735092767</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2073509276</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Turkey Hill Lemonade</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>success</t>
         </is>
